--- a/data extraction /extraction /raw data /kern2015phys/kern2015phys.xlsx
+++ b/data extraction /extraction /raw data /kern2015phys/kern2015phys.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /extraction /raw data /kern2015phys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3586D511-579C-1B44-8C36-9ED31A4F8C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2B8073-A4DF-6049-9BA9-9A21A92C582B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-11000" windowWidth="27640" windowHeight="15620" xr2:uid="{573338BA-93A5-2E4D-AF78-30D22262602C}"/>
+    <workbookView xWindow="28800" yWindow="-11000" windowWidth="24000" windowHeight="15620" activeTab="1" xr2:uid="{573338BA-93A5-2E4D-AF78-30D22262602C}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
+    <sheet name="metafor calculations" sheetId="3" r:id="rId2"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -71,13 +72,58 @@
   </si>
   <si>
     <t>figure 5c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kern_2015plasticity </t>
+  </si>
+  <si>
+    <t>figure 1</t>
+  </si>
+  <si>
+    <t>18-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival </t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Limnodynastes</t>
+  </si>
+  <si>
+    <t>UV exposure</t>
+  </si>
+  <si>
+    <t>UV absence</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>UV presence</t>
+  </si>
+  <si>
+    <t>figure 2</t>
+  </si>
+  <si>
+    <t>CT max</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>avg constant</t>
+  </si>
+  <si>
+    <t>avg constant error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,13 +131,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,8 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE5D74-9D69-164C-88C9-F8386987400A}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -834,6 +895,893 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393D48F2-C7C4-994B-8EF0-CEE10DCC08A2}">
+  <dimension ref="A1:AL15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1">
+        <v>92.111959299999995</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>83.460559799999999</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2.1628498700000001</v>
+      </c>
+      <c r="S1" s="1">
+        <v>6.3613231600000004</v>
+      </c>
+      <c r="T1" s="1">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1">
+        <v>89.312977099999998</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>80.916030500000005</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.97964377</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6.9974554700000002</v>
+      </c>
+      <c r="T2" s="1">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1">
+        <v>80.916030500000005</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>83.460559799999999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4.0712468199999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6.3613231600000004</v>
+      </c>
+      <c r="T3" s="1">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="1">
+        <v>67.684478400000003</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>80.916030500000005</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.9974554700000002</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6.9974554700000002</v>
+      </c>
+      <c r="T4" s="1">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1">
+        <v>38.477183500000002</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>40.2934226</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.12356979</v>
+      </c>
+      <c r="S5" s="1">
+        <v>6.8649890000000005E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1">
+        <v>38.899696400000003</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>40.432164800000002</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.16933638000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.11442537999999999</v>
+      </c>
+      <c r="T6" s="1">
+        <v>12</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1">
+        <v>41.285845299999998</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>40.2934226</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.14645309000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>6.8649890000000005E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>12</v>
+      </c>
+      <c r="U7" s="1">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="1">
+        <v>40.994399399999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>40.432164800000002</v>
+      </c>
+      <c r="R8" s="1">
+        <v>9.1533180000000006E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.11442537999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>12</v>
+      </c>
+      <c r="U8" s="1">
+        <v>12</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P11" s="2">
+        <f>AVERAGE(P3,P1)</f>
+        <v>86.5139949</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>83.460559799999999</v>
+      </c>
+      <c r="R11" s="2">
+        <f>AVERAGE(R1,R3)</f>
+        <v>3.1170483449999997</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P12" s="2">
+        <f>AVERAGE(P2-P4)</f>
+        <v>21.628498699999994</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>80.916030500000005</v>
+      </c>
+      <c r="R12" s="2">
+        <f>AVERAGE(R2,R4)</f>
+        <v>6.4885496200000006</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P13" s="2">
+        <f>AVERAGE(P5,P7)</f>
+        <v>39.8815144</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>40.2934226</v>
+      </c>
+      <c r="R13" s="2">
+        <f>AVERAGE(R5,R7)</f>
+        <v>0.13501144000000001</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <f>AVERAGE(P6,P8)</f>
+        <v>39.947047900000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>40.432164800000002</v>
+      </c>
+      <c r="R14" s="2">
+        <f>AVERAGE(R6,R8)</f>
+        <v>0.13043478</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A7C678-4B82-8B40-A3B2-0CEA52DCF886}">
   <dimension ref="A1:D8"/>
   <sheetViews>
